--- a/MP3s/2019/_NFC_Cards.xlsx
+++ b/MP3s/2019/_NFC_Cards.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Colin</t>
   </si>
@@ -124,6 +123,75 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>Nils</t>
+  </si>
+  <si>
+    <t>001_Fehler.mp3</t>
+  </si>
+  <si>
+    <t>002_Colin.mp3</t>
+  </si>
+  <si>
+    <t>003_Jana.mp3</t>
+  </si>
+  <si>
+    <t>004_Jonah.mp3</t>
+  </si>
+  <si>
+    <t>005_Kjell.mp3</t>
+  </si>
+  <si>
+    <t>006_Noah.mp3</t>
+  </si>
+  <si>
+    <t>007_Oscar.mp3</t>
+  </si>
+  <si>
+    <t>008_Paul.mp3</t>
+  </si>
+  <si>
+    <t>009_Per.mp3</t>
+  </si>
+  <si>
+    <t>010_Nils.mp3</t>
+  </si>
+  <si>
+    <t>04 7C 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 74 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 6C 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 64 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 5C 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 54 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 4C 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 44 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 3C 9D C2 A8 64 81</t>
+  </si>
+  <si>
+    <t>04 89 98 C2 A8 64 80</t>
+  </si>
+  <si>
+    <t>04 81 98 C2 A8 64 80</t>
+  </si>
+  <si>
+    <t>04 79 98 C2 A8 64 80</t>
   </si>
 </sst>
 </file>
@@ -472,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,24 +693,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>